--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A6C178-AC9D-471D-9BE9-913F9C3D92B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2E9478-CDFF-4D9E-B1C3-17C74A102071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skillDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,27 +155,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>击杀小兵或野怪会为阿狸提供一层【魂魄碎片】。在拥有9个碎片后，阿狸会消耗掉它们来回复{0}生命值。
-当阿狸参与击杀一名她在3秒内造成过伤害的敌方英雄后，她会享用其魂魄，来回复{1}生命值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿狸释放出3团狐火来追踪附近的敌人们并造成{0}魔法伤害，第一团之后的狐火降低至{1}伤害。她还会获得在2秒里持续衰减的40%移动速度。 
-狐火的优先度顺序为：被魅惑妖术命中的英雄、被阿狸攻击过的敌人、然后是其他英雄。
-20%生命值以下的小兵会受到200%伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿狸投出然后收回她的宝珠，在放出时会沿途对敌人造成{0}魔法伤害，在收回时则会沿途对敌人造成{1}真实伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿狸献出红唇热吻，魅惑命中的首个敌人{0}秒并造成{1}魔法伤害。 这个技能会使敌人中断位移。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿狸灵活地突进，并对附近的敌人们发射3颗灵魄弹，优先选择英雄。这些灵魄弹每颗造成{0}魔法伤害。
-灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬一名英雄的魂魄时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -353,6 +329,28 @@
   </si>
   <si>
     <t>[40,65,90,115,140],[40,65,90,115,140]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸释放出3团狐火来追踪附近的敌人们并造成{0}魔法伤害，第一团之后的狐火降低至{1}伤害。她还会获得在2秒里持续衰减的40%移动速度。 
+狐火会优先攻击被魅惑的英雄。20%生命值以下的敌人会受到200%伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0}秒并造成{1}魔法伤害。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸灵活地突进，并对附近的敌人们发射3颗灵魄弹，优先选择英雄。这些灵魄弹每颗造成{0}魔法伤害。
+灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬魂魄碎片时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀敌人会为阿狸提供一层【魂魄碎片】。在拥有9个碎片后，阿狸会吞噬掉它们来回复{0}生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_skillDescription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -709,39 +707,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -759,24 +757,24 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -794,57 +792,57 @@
         <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -879,7 +877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -902,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -937,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="53.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -957,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -972,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1019,74 +1017,74 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2E9478-CDFF-4D9E-B1C3-17C74A102071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA3A548-2558-4B60-954C-BE5367217AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,23 +67,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Qskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>妖异狐火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eskill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rskill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -351,6 +335,22 @@
   </si>
   <si>
     <t>_skillDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -707,39 +707,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -757,24 +757,24 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -783,63 +783,63 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -850,66 +850,66 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -920,31 +920,31 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -955,31 +955,31 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -1019,72 +1019,72 @@
     </row>
     <row r="10" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA3A548-2558-4B60-954C-BE5367217AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4C39BB-FBC2-4593-871C-2A6DA9F83521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,11 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿狸释放出3团狐火来追踪附近的敌人们并造成{0}魔法伤害，第一团之后的狐火降低至{1}伤害。她还会获得在2秒里持续衰减的40%移动速度。 
-狐火会优先攻击被魅惑的英雄。20%生命值以下的敌人会受到200%伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0}秒并造成{1}魔法伤害。 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +346,11 @@
   </si>
   <si>
     <t>RSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸释放出3团狐火来追踪附近的敌人们并造成{0}魔法伤害，第一团之后的狐火降低至{1}伤害。她还会获得在2秒里持续衰减的40%移动速度。 
+狐火会优先攻击被阿狸锁定的敌人。20%生命值以下的敌人会受到200%伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -809,22 +809,22 @@
     </row>
     <row r="4" spans="1:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>46</v>
@@ -850,31 +850,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4C39BB-FBC2-4593-871C-2A6DA9F83521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651D1E46-E33B-46F1-B81F-69CB37B4E17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,7 +350,7 @@
   </si>
   <si>
     <t>阿狸释放出3团狐火来追踪附近的敌人们并造成{0}魔法伤害，第一团之后的狐火降低至{1}伤害。她还会获得在2秒里持续衰减的40%移动速度。 
-狐火会优先攻击被阿狸锁定的敌人。20%生命值以下的敌人会受到200%伤害。</t>
+狐火会优先攻击最近的敌人。20%生命值以下的敌人会受到200%伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +682,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651D1E46-E33B-46F1-B81F-69CB37B4E17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DA7BBB-8F7B-43D3-991F-30993BD3E0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[65,70,75,80,85]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Straight,Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1.2,1.35,1.5,1.65,1.8],[80,120,160,200,240]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,10 +199,6 @@
   </si>
   <si>
     <t>RealmWarp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞兹获得{0}最大法力值。他的技能会基于他的额外法力值造成额外伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,47 +230,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_skillBulletType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aimed,Projectile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aimed,Immediate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[40,55,70,85,100]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[13,12,11,10,9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_skillUsageType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff,Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Displacement,Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Buff,Displacement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被动：超负荷对带有涌动的目标的伤害加成提升至{0}。 
 主动：瑞兹开启一个前往另一个位置的传送门。在2秒后，传送门附近的所有友军都会被传送到该位置。 如果瑞兹被定身或限制，那么传送门就会被取消。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,11 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿狸灵活地突进，并对附近的敌人们发射3颗灵魄弹，优先选择英雄。这些灵魄弹每颗造成{0}魔法伤害。
-灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬魂魄碎片时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击杀敌人会为阿狸提供一层【魂魄碎片】。在拥有9个碎片后，阿狸会吞噬掉它们来回复{0}生命值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +294,31 @@
   <si>
     <t>阿狸释放出3团狐火来追踪附近的敌人们并造成{0}魔法伤害，第一团之后的狐火降低至{1}伤害。她还会获得在2秒里持续衰减的40%移动速度。 
 狐火会优先攻击最近的敌人。20%生命值以下的敌人会受到200%伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸灵活地突进，并对最近的敌人们发射3颗灵魄弹。这些灵魄弹每颗造成{0}魔法伤害。
+灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬魂魄碎片时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_castTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_destinationDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞兹每拥有100法强获得10%最大法力值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -707,39 +675,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -757,24 +725,24 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -792,54 +760,54 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -850,66 +818,66 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -920,31 +888,31 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -955,31 +923,31 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -990,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>970</v>
+        <v>900</v>
       </c>
       <c r="D9" s="1">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="E9" s="1">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="1">
         <v>450</v>
@@ -1017,74 +985,96 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>200</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>120</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2600</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>500</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DA7BBB-8F7B-43D3-991F-30993BD3E0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9014A4CD-64E0-4CA7-BE62-B9F053A83EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -976,10 +976,10 @@
         <v>1000</v>
       </c>
       <c r="I9" s="1">
-        <v>615</v>
+        <v>550</v>
       </c>
       <c r="J9" s="1">
-        <v>615</v>
+        <v>550</v>
       </c>
       <c r="K9" s="1">
         <v>3000</v>
@@ -1007,6 +1007,18 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
+      <c r="H10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1030,6 +1042,18 @@
       <c r="G11" s="1">
         <v>0</v>
       </c>
+      <c r="H11" s="1">
+        <v>110</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1053,6 +1077,18 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
+      <c r="H12" s="1">
+        <v>1700</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1074,6 +1110,18 @@
         <v>500</v>
       </c>
       <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9014A4CD-64E0-4CA7-BE62-B9F053A83EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AAF8D1-8130-46A3-81F1-6E5ED05F4438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿狸投出然后收回她的宝珠，在放出时会沿途对敌人造成{0}魔法伤害，在收回时则会沿途对敌人造成{1}真实伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EssenceTheft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,14 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0}秒并造成{1}魔法伤害。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀敌人会为阿狸提供一层【魂魄碎片】。在拥有9个碎片后，阿狸会吞噬掉它们来回复{0}生命值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>_skillDescription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,33 +280,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿狸释放出3团狐火来追踪附近的敌人们并造成{0}魔法伤害，第一团之后的狐火降低至{1}伤害。她还会获得在2秒里持续衰减的40%移动速度。 
+    <t>_castTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_destinationDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0}秒并造成&lt;color=#7700BB&gt;{1}魔法伤害&lt;/color&gt;。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸灵活地突进，并对最近的敌人们发射3颗灵魄弹。这些灵魄弹每颗造成&lt;color=#7700BB&gt;{0}魔法伤害&lt;/color&gt;。
+灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬魂魄碎片时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸释放出3团狐火来追踪附近的敌人们并造成&lt;color=#7700BB&gt;{0}魔法伤害&lt;/color&gt;，第一团之后的狐火降低至&lt;color=#7700BB&gt;{1}伤害&lt;/color&gt;（40%）。她还会获得在2秒里持续衰减的40%&lt;color=#FDF9C8&gt;移动速度&lt;/color&gt;。 
 狐火会优先攻击最近的敌人。20%生命值以下的敌人会受到200%伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿狸灵活地突进，并对最近的敌人们发射3颗灵魄弹。这些灵魄弹每颗造成{0}魔法伤害。
-灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬魂魄碎片时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_castTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_bulletWidth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_bulletSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_destinationDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞兹每拥有100法强获得10%最大法力值。</t>
+    <t>阿狸投出然后收回她的宝珠，在放出时会沿途对敌人造成&lt;color=#7700BB&gt;{0}魔法伤害&lt;/color&gt;，在收回时则会沿途对敌人造成&lt;color=#FFFFFF&gt;{1}真实伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀敌人会为阿狸提供一层【魂魄碎片】。在拥有9个碎片后，阿狸会吞噬掉它们来回复&lt;color=#33FF33&gt;{0}生命值&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞兹每拥有&lt;color=#7700BB&gt;100法术强度&lt;/color&gt;获得&lt;color=#33FFFF&gt;10%最大法力值&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -675,34 +675,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -725,19 +725,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -760,54 +760,54 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -818,31 +818,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>20</v>
@@ -903,16 +903,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
     </row>
     <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AAF8D1-8130-46A3-81F1-6E5ED05F4438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F15EB1-9ADB-44C8-97B8-0556E5B13190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,127 +198,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[75,95,115,135,155],[0.28,0.32,0.36,0.4,0.44]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40,38,36,34,32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,6,6,6,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞兹造成{0}魔法伤害和持续1.5秒的50%减速。
+如果目标带有涌动，则它会将其消耗，使这个技能造成禁锢而非减速。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[60,90,120,150,180]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40,55,70,85,100]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13,12,11,10,9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞兹发射一颗法球，造成{0}魔法伤害并施加持续4秒的涌动给目标和附近的敌人们。
+已被涌动影响的敌人们将使其进一步扩散。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3.25,3,2.75,2.5,2.25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动：超负荷对带有涌动的目标的伤害加成提升至{0}。 
+主动：瑞兹开启一个前往另一个位置的传送门。在2秒后，传送门附近的所有友军都会被传送到该位置。 如果瑞兹被定身或限制，那么传送门就会被取消。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.5,0.75,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[210,180,150]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40,65,90,115,140],[40,65,90,115,140]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_skillDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_castTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletWidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_bulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_destinationDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞兹每拥有&lt;color=#7700BB&gt;100法术强度&lt;/color&gt;获得&lt;color=#33FFFF&gt;10%最大法力值&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸投出然后收回她的宝珠，在放出时会沿途对敌人造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，在收回时则会沿途对敌人造成&lt;color=#FFFFFF&gt;{1}真实伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀敌人会为阿狸提供一层【魂魄碎片】。在拥有9个碎片后，阿狸会吞噬掉它们来回复&lt;color=#33FF33&gt;{0:F0}生命值&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸释放出3团狐火来追踪附近的敌人们并造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，第一团之后的狐火降低至&lt;color=#7700BB&gt;{1:F0}伤害&lt;/color&gt;（40%）。她还会获得在2秒里持续衰减的40%&lt;color=#FDF9C8&gt;移动速度&lt;/color&gt;。 
+狐火会优先攻击最近的敌人。20%生命值以下的敌人会受到200%伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0}秒并造成&lt;color=#7700BB&gt;{1:F0}魔法伤害&lt;/color&gt;。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸灵活地突进，并对最近的敌人们发射3颗灵魄弹。这些灵魄弹每颗造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;。
+灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬魂魄碎片时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>被动：符文禁锢和法术涌动会刷新这个技能的冷却时间并充能一枚符文，持续4秒(最多2枚符文)。 
-主动：瑞兹释放一次魔爆，对命中的第一个敌人造成{0}魔法伤害。
+主动：瑞兹释放一次魔爆，对命中的第一个敌人造成{0:F0}魔法伤害。
 如果目标带有涌动，则它会将其消耗，使这个技能造成10%伤害提升并弹射至附近带有涌动的敌人们。 
 如果2枚符文已被充能，瑞兹就会释放所有符文的能量，来为瑞兹提供持续2秒的{1}移动速度。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[75,95,115,135,155],[0.28,0.32,0.36,0.4,0.44]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[40,38,36,34,32]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[6,6,6,6,6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞兹造成{0}魔法伤害和持续1.5秒的50%减速。
-如果目标带有涌动，则它会将其消耗，使这个技能造成禁锢而非减速。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[60,90,120,150,180]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[40,55,70,85,100]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[13,12,11,10,9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞兹发射一颗法球，造成{0}魔法伤害并施加持续4秒的涌动给目标和附近的敌人们。
-已被涌动影响的敌人们将使其进一步扩散。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3.25,3,2.75,2.5,2.25]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动：超负荷对带有涌动的目标的伤害加成提升至{0}。 
-主动：瑞兹开启一个前往另一个位置的传送门。在2秒后，传送门附近的所有友军都会被传送到该位置。 如果瑞兹被定身或限制，那么传送门就会被取消。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.5,0.75,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[210,180,150]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[40,65,90,115,140],[40,65,90,115,140]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_skillDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_castTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_bulletWidth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_bulletSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_destinationDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0}秒并造成&lt;color=#7700BB&gt;{1}魔法伤害&lt;/color&gt;。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿狸灵活地突进，并对最近的敌人们发射3颗灵魄弹。这些灵魄弹每颗造成&lt;color=#7700BB&gt;{0}魔法伤害&lt;/color&gt;。
-灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬魂魄碎片时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿狸释放出3团狐火来追踪附近的敌人们并造成&lt;color=#7700BB&gt;{0}魔法伤害&lt;/color&gt;，第一团之后的狐火降低至&lt;color=#7700BB&gt;{1}伤害&lt;/color&gt;（40%）。她还会获得在2秒里持续衰减的40%&lt;color=#FDF9C8&gt;移动速度&lt;/color&gt;。 
-狐火会优先攻击最近的敌人。20%生命值以下的敌人会受到200%伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿狸投出然后收回她的宝珠，在放出时会沿途对敌人造成&lt;color=#7700BB&gt;{0}魔法伤害&lt;/color&gt;，在收回时则会沿途对敌人造成&lt;color=#FFFFFF&gt;{1}真实伤害&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀敌人会为阿狸提供一层【魂魄碎片】。在拥有9个碎片后，阿狸会吞噬掉它们来回复&lt;color=#33FF33&gt;{0}生命值&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞兹每拥有&lt;color=#7700BB&gt;100法术强度&lt;/color&gt;获得&lt;color=#33FFFF&gt;10%最大法力值&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -777,37 +777,37 @@
     </row>
     <row r="4" spans="1:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -818,31 +818,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>20</v>
@@ -903,16 +903,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
     </row>
     <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F15EB1-9ADB-44C8-97B8-0556E5B13190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4408B62-87CD-40FB-BFFE-F8271DAC02BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,11 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿狸释放出3团狐火来追踪附近的敌人们并造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，第一团之后的狐火降低至&lt;color=#7700BB&gt;{1:F0}伤害&lt;/color&gt;（40%）。她还会获得在2秒里持续衰减的40%&lt;color=#FDF9C8&gt;移动速度&lt;/color&gt;。 
-狐火会优先攻击最近的敌人。20%生命值以下的敌人会受到200%伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0}秒并造成&lt;color=#7700BB&gt;{1:F0}魔法伤害&lt;/color&gt;。 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +314,11 @@
 主动：瑞兹释放一次魔爆，对命中的第一个敌人造成{0:F0}魔法伤害。
 如果目标带有涌动，则它会将其消耗，使这个技能造成10%伤害提升并弹射至附近带有涌动的敌人们。 
 如果2枚符文已被充能，瑞兹就会释放所有符文的能量，来为瑞兹提供持续2秒的{1}移动速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸释放出3团狐火来追踪附近的敌人们并造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，第一团之后的狐火降低至&lt;color=#7700BB&gt;{1:F0}伤害&lt;/color&gt;（40%）。她还会获得在2秒里持续衰减的&lt;color=#FDF9C8&gt;40%移动速度&lt;/color&gt;。 
+狐火会优先攻击最近的敌人。20%生命值以下的敌人会受到200%伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -786,19 +786,19 @@
         <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>46</v>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4408B62-87CD-40FB-BFFE-F8271DAC02BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E10FDA-C116-4BEC-8016-23A314C76C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,10 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0}秒并造成&lt;color=#7700BB&gt;{1:F0}魔法伤害&lt;/color&gt;。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿狸灵活地突进，并对最近的敌人们发射3颗灵魄弹。这些灵魄弹每颗造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;。
 灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬魂魄碎片时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +315,10 @@
   <si>
     <t>阿狸释放出3团狐火来追踪附近的敌人们并造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，第一团之后的狐火降低至&lt;color=#7700BB&gt;{1:F0}伤害&lt;/color&gt;（40%）。她还会获得在2秒里持续衰减的&lt;color=#FDF9C8&gt;40%移动速度&lt;/color&gt;。 
 狐火会优先攻击最近的敌人。20%生命值以下的敌人会受到200%伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0:0.##}秒并造成&lt;color=#7700BB&gt;{1:F0}魔法伤害&lt;/color&gt;。 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -786,19 +786,19 @@
         <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>46</v>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E10FDA-C116-4BEC-8016-23A314C76C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732D83C0-F013-4E04-9BDB-4447B2C0E7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>击杀敌人会为阿狸提供一层【魂魄碎片】。在拥有9个碎片后，阿狸会吞噬掉它们来回复&lt;color=#33FF33&gt;{0:F0}生命值&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿狸灵活地突进，并对最近的敌人们发射3颗灵魄弹。这些灵魄弹每颗造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;。
 灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬魂魄碎片时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +315,10 @@
   </si>
   <si>
     <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0:0.##}秒并造成&lt;color=#7700BB&gt;{1:F0}魔法伤害&lt;/color&gt;。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀敌人会为阿狸提供一层【魂魄碎片】。在拥有5个碎片后，阿狸会吞噬掉它们来回复&lt;color=#33FF33&gt;{0:F0}生命值和法力值&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -780,25 +780,25 @@
         <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>46</v>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732D83C0-F013-4E04-9BDB-4447B2C0E7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B843795E-B19B-40D0-A4C4-A0ACDA53E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿狸投出然后收回她的宝珠，在放出时会沿途对敌人造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，在收回时则会沿途对敌人造成&lt;color=#FFFFFF&gt;{1}真实伤害&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阿狸灵活地突进，并对最近的敌人们发射3颗灵魄弹。这些灵魄弹每颗造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;。
 灵魄突袭可以在15秒内再次施放至多2次。 在此期间，用摄魂夺魄吞噬魂魄碎片时，会使再次施放的窗口期至多延长至10秒并为灵魄突袭提供一次额外的再次施放(至多可储存至3次)。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +315,10 @@
   </si>
   <si>
     <t>击杀敌人会为阿狸提供一层【魂魄碎片】。在拥有5个碎片后，阿狸会吞噬掉它们来回复&lt;color=#33FF33&gt;{0:F0}生命值和法力值&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿狸投出然后收回她的宝珠，在放出时会沿途对敌人造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，在收回时则会沿途对敌人造成&lt;color=#FFFFFF&gt;{1:F0}真实伤害&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,27 +650,27 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.4140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="28.75" style="1" customWidth="1"/>
     <col min="10" max="10" width="36.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="11" max="11" width="28.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -740,7 +740,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -775,30 +775,30 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>46</v>
@@ -810,7 +810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -845,7 +845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -880,7 +880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -915,7 +915,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -950,7 +950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +985,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B843795E-B19B-40D0-A4C4-A0ACDA53E85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642410D1-0634-4126-90B0-5DF49DA0AA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,34 @@
   </si>
   <si>
     <t>阿狸投出然后收回她的宝珠，在放出时会沿途对敌人造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，在收回时则会沿途对敌人造成&lt;color=#FFFFFF&gt;{1:F0}真实伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[180]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向指针位置位移一小段距离。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,7 +698,7 @@
     <col min="13" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,8 +732,11 @@
       <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -739,8 +770,11 @@
       <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -774,8 +808,11 @@
       <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -809,8 +846,11 @@
       <c r="K4" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -844,8 +884,11 @@
       <c r="K5" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -879,8 +922,11 @@
       <c r="K6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -914,8 +960,11 @@
       <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -949,8 +998,11 @@
       <c r="K8" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -984,8 +1036,11 @@
       <c r="K9" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1019,8 +1074,11 @@
       <c r="K10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1054,8 +1112,11 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1089,8 +1150,11 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1123,6 +1187,9 @@
       </c>
       <c r="K13" s="1">
         <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642410D1-0634-4126-90B0-5DF49DA0AA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70866E-084A-48BB-847E-93F74EF8FE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-2240" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,26 @@
   </si>
   <si>
     <t>DSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoustPoro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵疾步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得4秒的40%加速并使自身处于幽灵状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,30 +695,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.625" style="1"/>
+    <col min="1" max="16384" width="29.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,8 +743,11 @@
       <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -773,8 +784,11 @@
       <c r="L2" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -811,8 +825,11 @@
       <c r="L3" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -849,8 +866,11 @@
       <c r="L4" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -887,8 +907,11 @@
       <c r="L5" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="L6" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="M6" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -963,8 +989,11 @@
       <c r="L7" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1001,8 +1030,11 @@
       <c r="L8" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="M8" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1039,8 +1071,11 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1077,8 +1112,11 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1115,8 +1153,11 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1153,8 +1194,11 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1190,6 +1234,9 @@
       </c>
       <c r="L13" s="1">
         <v>400</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70866E-084A-48BB-847E-93F74EF8FE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E56914-4D43-49F4-B32A-E54BA6814530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GoustPoro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幽灵疾步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,6 +363,10 @@
   </si>
   <si>
     <t>FSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostPoro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +698,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,7 +744,7 @@
         <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -826,7 +826,7 @@
         <v>75</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -867,7 +867,7 @@
         <v>77</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,7 +908,7 @@
         <v>78</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
         <v>74</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E56914-4D43-49F4-B32A-E54BA6814530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243C4407-C600-4989-93E0-3E76B47A77CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">阿狸献出红唇热吻，魅惑命中的首个敌人{0:0.##}秒并造成&lt;color=#7700BB&gt;{1:F0}魔法伤害&lt;/color&gt;。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>击杀敌人会为阿狸提供一层【魂魄碎片】。在拥有5个碎片后，阿狸会吞噬掉它们来回复&lt;color=#33FF33&gt;{0:F0}生命值和法力值&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,6 +363,112 @@
   </si>
   <si>
     <t>GhostPoro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WayOfTheWanderer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yasuo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteelTempest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindWall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SweepingBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastBreath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩钢闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏前斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂风绝息斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0,0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪客之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,4,4,4,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20,45,70,95,120],[20,45,70,95,120]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百折不屈：亚索在移动的同时会积攒剑意，移动得越快，剑意的获取就越快。当剑意槽被充满时，下一次受伤时清空剑意槽并且恢复{0:F0}生命值。 
+向死而生：亚索的总暴击几率提升100%。100%以上的暴击几率，会每1%额外转化为0.5攻击力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风之障壁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚索形成一个持续4秒的气流浮墙，来阻挡敌方的飞行道具。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25,23,21,19,17]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[320,390,460,530,600]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.5,0.4,0.3,0.2,0.1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚索冲刺并穿过一个目标，造成{0:F0}魔法伤害，这个技能每次施放后都会为5秒内的后续施放提供25%额外伤害，至多可叠加4次。 这个技能对每个目标有{1:F0}秒冷却时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70,85,100,115,130],[10,9,8,7,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70,50,30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">阿狸献出红唇热吻，眩晕命中的首个敌人{0:0.##}秒并造成&lt;color=#7700BB&gt;{1:F0}魔法伤害&lt;/color&gt;。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚索瞬间移动到一名被眩晕的敌方英雄身边，造成{0:F0}物理伤害并使所有附近被击飞的敌人们维持此状态至多1秒。亚索还会获得满额剑意，但会失去所有所有斩钢闪层数。 之后，亚索获得60%额外物理穿透，持续15秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚索进行戳刺，造成{0:F0}物理伤害。如果他命中了，那么他会获得一层持续6秒的层数。当他拥有2层时，这个技能的下次施放将会发射出一道远程龙卷风，造成等值伤害和1秒眩晕。 如果在冲刺期间施放，那么这个技能会呈环状进行打击而非直接戳刺。 
+这个技能和攻击类似：它可以暴击以造成{1:F0}物理伤害，它会对击中的敌人施加攻击特效，它的冷却时间和施放时间可通过攻击速度来缩短。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,10 +797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,7 +811,7 @@
     <col min="1" max="16384" width="29.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,13 +846,28 @@
         <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -782,13 +902,28 @@
         <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -823,27 +958,42 @@
         <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>66</v>
@@ -864,13 +1014,28 @@
         <v>52</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -905,13 +1070,28 @@
         <v>60</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -946,13 +1126,28 @@
         <v>20</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -987,13 +1182,28 @@
         <v>54</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1028,13 +1238,25 @@
         <v>53</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,8 +1296,23 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>80</v>
+      </c>
+      <c r="P9" s="1">
+        <v>350</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>475</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1115,8 +1352,23 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1156,8 +1408,23 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>80</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1197,8 +1464,23 @@
       <c r="M12" s="1">
         <v>0</v>
       </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="P12" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1236,6 +1518,21 @@
         <v>400</v>
       </c>
       <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>475</v>
+      </c>
+      <c r="R13" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243C4407-C600-4989-93E0-3E76B47A77CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8C365-8340-464E-81FB-B48EF9A7DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,15 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[20,45,70,95,120],[20,45,70,95,120]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百折不屈：亚索在移动的同时会积攒剑意，移动得越快，剑意的获取就越快。当剑意槽被充满时，下一次受伤时清空剑意槽并且恢复{0:F0}生命值。 
-向死而生：亚索的总暴击几率提升100%。100%以上的暴击几率，会每1%额外转化为0.5攻击力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>风之障壁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -469,6 +460,15 @@
   <si>
     <t>亚索进行戳刺，造成{0:F0}物理伤害。如果他命中了，那么他会获得一层持续6秒的层数。当他拥有2层时，这个技能的下次施放将会发射出一道远程龙卷风，造成等值伤害和1秒眩晕。 如果在冲刺期间施放，那么这个技能会呈环状进行打击而非直接戳刺。 
 这个技能和攻击类似：它可以暴击以造成{1:F0}物理伤害，它会对击中的敌人施加攻击特效，它的冷却时间和施放时间可通过攻击速度来缩短。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20,45,70,95,120]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百折不屈：亚索在移动的同时会积攒剑意，移动得越快，剑意的获取就越快。当剑意槽被充满时，下一次受伤时清空剑意槽并且恢复{0:F0}生命值。 
+向死而生：亚索的总暴击几率加成提升100%。100%以上的暴击几率，会每1%额外转化为0.5攻击力。亚索的初始暴击伤害减少20%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,10 +800,10 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -970,7 +970,7 @@
         <v>89</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>90</v>
@@ -993,7 +993,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>66</v>
@@ -1020,19 +1020,19 @@
         <v>79</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="Q4" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1194,13 +1194,13 @@
         <v>95</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="R7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="P9" s="1">
         <v>350</v>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E8C365-8340-464E-81FB-B48EF9A7DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F6085-4C61-4A30-9215-20DB461E3456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,15 +434,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> [0.5,0.4,0.3,0.2,0.1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亚索冲刺并穿过一个目标，造成{0:F0}魔法伤害，这个技能每次施放后都会为5秒内的后续施放提供25%额外伤害，至多可叠加4次。 这个技能对每个目标有{1:F0}秒冷却时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[70,85,100,115,130],[10,9,8,7,6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -469,6 +461,14 @@
   <si>
     <t>百折不屈：亚索在移动的同时会积攒剑意，移动得越快，剑意的获取就越快。当剑意槽被充满时，下一次受伤时清空剑意槽并且恢复{0:F0}生命值。 
 向死而生：亚索的总暴击几率加成提升100%。100%以上的暴击几率，会每1%额外转化为0.5攻击力。亚索的初始暴击伤害减少20%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70,85,100,115,130],[7,6,5,4,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1,0.8,0.6,0.4,0.2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,7 +803,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -993,7 +993,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>66</v>
@@ -1020,19 +1020,19 @@
         <v>79</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>97</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1197,10 +1197,10 @@
         <v>98</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1247,13 +1247,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181F6085-4C61-4A30-9215-20DB461E3456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29604943-F648-47F1-9180-D06409FE18A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,10 +446,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚索瞬间移动到一名被眩晕的敌方英雄身边，造成{0:F0}物理伤害并使所有附近被击飞的敌人们维持此状态至多1秒。亚索还会获得满额剑意，但会失去所有所有斩钢闪层数。 之后，亚索获得60%额外物理穿透，持续15秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亚索进行戳刺，造成{0:F0}物理伤害。如果他命中了，那么他会获得一层持续6秒的层数。当他拥有2层时，这个技能的下次施放将会发射出一道远程龙卷风，造成等值伤害和1秒眩晕。 如果在冲刺期间施放，那么这个技能会呈环状进行打击而非直接戳刺。 
 这个技能和攻击类似：它可以暴击以造成{1:F0}物理伤害，它会对击中的敌人施加攻击特效，它的冷却时间和施放时间可通过攻击速度来缩短。</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +465,14 @@
   </si>
   <si>
     <t xml:space="preserve"> [1,0.8,0.6,0.4,0.2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚索瞬间移动到一名被眩晕的敌方英雄身边，造成{0:F0}物理伤害并使所有附近被眩晕的敌人们额外维持控制状态1秒。亚索还会获得满额剑意。 之后，亚索获得60%额外物理穿透，持续15秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200,350,500]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,7 +807,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1020,10 +1024,10 @@
         <v>79</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>97</v>
@@ -1032,7 +1036,7 @@
         <v>100</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1197,7 +1201,7 @@
         <v>98</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>101</v>
@@ -1247,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>99</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
+        <v>106</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29604943-F648-47F1-9180-D06409FE18A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBEAF1-901E-457A-8E2B-D73F6D3A0511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,15 +464,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> [1,0.8,0.6,0.4,0.2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亚索瞬间移动到一名被眩晕的敌方英雄身边，造成{0:F0}物理伤害并使所有附近被眩晕的敌人们额外维持控制状态1秒。亚索还会获得满额剑意。 之后，亚索获得60%额外物理穿透，持续15秒。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[200,350,500]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> [0.5,0.4,0.3,0.2,0.1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +807,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R8" sqref="R8"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1036,7 @@
         <v>100</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>98</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>101</v>
@@ -1260,7 +1260,7 @@
         <v>106</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CBEAF1-901E-457A-8E2B-D73F6D3A0511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF0098-00C3-4DF3-8F28-8A2A27A9C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,32 +422,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚索形成一个持续4秒的气流浮墙，来阻挡敌方的飞行道具。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[25,23,21,19,17]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[320,390,460,530,600]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚索冲刺并穿过一个目标，造成{0:F0}魔法伤害，这个技能每次施放后都会为5秒内的后续施放提供25%额外伤害，至多可叠加4次。 这个技能对每个目标有{1:F0}秒冷却时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[70,50,30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">阿狸献出红唇热吻，眩晕命中的首个敌人{0:0.##}秒并造成&lt;color=#7700BB&gt;{1:F0}魔法伤害&lt;/color&gt;。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚索进行戳刺，造成{0:F0}物理伤害。如果他命中了，那么他会获得一层持续6秒的层数。当他拥有2层时，这个技能的下次施放将会发射出一道远程龙卷风，造成等值伤害和1秒眩晕。 如果在冲刺期间施放，那么这个技能会呈环状进行打击而非直接戳刺。 
-这个技能和攻击类似：它可以暴击以造成{1:F0}物理伤害，它会对击中的敌人施加攻击特效，它的冷却时间和施放时间可通过攻击速度来缩短。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,15 +447,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚索瞬间移动到一名被眩晕的敌方英雄身边，造成{0:F0}物理伤害并使所有附近被眩晕的敌人们额外维持控制状态1秒。亚索还会获得满额剑意。 之后，亚索获得60%额外物理穿透，持续15秒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[200,350,500]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> [0.5,0.4,0.3,0.2,0.1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚索冲刺并穿过一个目标，造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，这个技能每次施放后都会为5秒内的后续施放提供25%额外伤害，至多可叠加4次。 这个技能对每个目标有{1:F0}秒冷却时间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚索形成一个持续4秒的气流浮墙，对身处风墙中的敌人每秒造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;并且造成1秒40%减速。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚索瞬间移动到一名被眩晕的敌方英雄身边，造成&lt;color=#FF6A6A&gt;{0:F0}物理伤害&lt;/color&gt;并使所有附近被眩晕的敌人们额外维持控制状态1秒。亚索还会获得满额剑意。 之后，亚索获得60%额外物理穿透，持续15秒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚索进行戳刺，造成&lt;color=#FF6A6A&gt;{0:F0}物理伤害&lt;/color&gt;。如果他命中了，那么他会获得一层持续6秒的层数。当他拥有2层时，这个技能的下次施放将会发射出一道远程龙卷风，造成等值伤害和1秒眩晕。 如果在冲刺期间施放，那么这个技能会呈环状进行打击而非直接戳刺。 
+这个技能和攻击类似：它可以暴击以造成&lt;color=#FF6A6A&gt;{1:F0}物理伤害&lt;/color&gt;，它会对击中的敌人施加攻击特效，它的冷却时间和施放时间可通过攻击速度来缩短。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15,20,30,45,70]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +807,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -997,7 +997,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>66</v>
@@ -1024,16 +1024,16 @@
         <v>79</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>107</v>
@@ -1198,13 +1198,13 @@
         <v>95</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1310,7 +1310,7 @@
         <v>450</v>
       </c>
       <c r="P9" s="1">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="Q9" s="1">
         <v>475</v>
@@ -1366,7 +1366,7 @@
         <v>0.35</v>
       </c>
       <c r="P10" s="1">
-        <v>1.2999999999999999E-2</v>
+        <v>0.13</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>1200</v>
       </c>
       <c r="P12" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF0098-00C3-4DF3-8F28-8A2A27A9C030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC588DB8-F00E-4266-B5B3-8E38A4CA0B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="136">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,6 +473,110 @@
   </si>
   <si>
     <t>[15,20,30,45,70]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DaredevilImpulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BladeWhirl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WildRush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfernoTrigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悍勇本色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂飙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱扳机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎弥拉可通过用不同的技能或攻击对敌方英雄造成伤害来构建一次连招。每个与前一个不同的技能或攻击都会提升她的评价等级，从E到S(一共6级)。每个评级会为莎弥拉提供3.5%移动速度。 莎弥拉在近战距离的攻击和技能会造成额外的&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，基于目标的已损失生命值至多提升100%。 莎弥拉如果在6秒里没有用她的攻击或技能对敌方英雄造成伤害，就会失去她的评价等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30,30,30,30,30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,5,4,3,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,5,10,15,20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[60,60,60,60,60]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20,18,16,14,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20,35,50,65,80]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50,60,70,80,90],[0.2,0.25,0.3,0.35,0.4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100,50,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,15,25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,5,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">莎弥拉只能在她当前的评价等级为S时使用这个技能。使用这个技能会消耗掉所有评价等级。 莎弥拉的武器倾泻出大量的子弹，狂野地在2秒里持续对她周围的所有敌人进行10次射击，每次射击造成&lt;color=#FF6A6A&gt;{0:F0}物理伤害&lt;/color&gt;并施加80%效能的生命偷取。这些射击也可以产生暴击。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎弥拉斩击她的周围0.75秒，使范围内的敌人减速50%，并在持续时间开始和结束时分别对敌人造成2段伤害，每段造成&lt;color=#FF6A6A&gt;{0:F0}物理伤害&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎弥拉进行一次射击，对命中的第一个敌人造成{0:F0}物理伤害。如果朝着近战距离内的一名敌人施放这个技能，那么莎弥拉会转而用她的剑进行斩击，造成&lt;color=#FF6A6A&gt;{1:F0}物理伤害&lt;/color&gt;。 这两种打击能够暴击并施加80%效能的生命偷取。 如果在狂飙期间施放此技能，那么莎弥拉将在冲刺完成时打击她沿途的所有敌人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎弥拉冲刺并越过一名敌人，斩击沿途的敌人以造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;并获得{1:P0}攻击速度，持续5秒。 如果一名敌人被莎弥拉击杀，那么这个技能的冷却时间会重置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,13 +905,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,7 +919,7 @@
     <col min="1" max="16384" width="29.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,8 +974,23 @@
       <c r="R1" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -926,8 +1045,23 @@
       <c r="R2" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -982,8 +1116,23 @@
       <c r="R3" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="S3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="250.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1038,8 +1187,23 @@
       <c r="R4" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="S4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1094,8 +1258,23 @@
       <c r="R5" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="S5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1150,8 +1329,23 @@
       <c r="R6" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1206,8 +1400,23 @@
       <c r="R7" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1262,8 +1471,23 @@
       <c r="R8" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1318,8 +1542,23 @@
       <c r="R9" s="1">
         <v>1400</v>
       </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>950</v>
+      </c>
+      <c r="U9" s="1">
+        <v>325</v>
+      </c>
+      <c r="V9" s="1">
+        <v>600</v>
+      </c>
+      <c r="W9" s="1">
+        <v>600</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1374,8 +1613,23 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1430,8 +1684,23 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>120</v>
+      </c>
+      <c r="U11" s="1">
+        <v>325</v>
+      </c>
+      <c r="V11" s="1">
+        <v>300</v>
+      </c>
+      <c r="W11" s="1">
+        <v>600</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1486,8 +1755,23 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2600</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1540,6 +1824,21 @@
         <v>475</v>
       </c>
       <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>650</v>
+      </c>
+      <c r="W13" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC588DB8-F00E-4266-B5B3-8E38A4CA0B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E5DD2-CE4A-4D94-A4F6-8F32C87E6E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,10 +520,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莎弥拉可通过用不同的技能或攻击对敌方英雄造成伤害来构建一次连招。每个与前一个不同的技能或攻击都会提升她的评价等级，从E到S(一共6级)。每个评级会为莎弥拉提供3.5%移动速度。 莎弥拉在近战距离的攻击和技能会造成额外的&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，基于目标的已损失生命值至多提升100%。 莎弥拉如果在6秒里没有用她的攻击或技能对敌方英雄造成伤害，就会失去她的评价等级。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[30,30,30,30,30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,6 +573,10 @@
   </si>
   <si>
     <t>莎弥拉冲刺并越过一名敌人，斩击沿途的敌人以造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;并获得{1:P0}攻击速度，持续5秒。 如果一名敌人被莎弥拉击杀，那么这个技能的冷却时间会重置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎弥拉可通过用不同的技能或攻击对敌方英雄造成伤害来构建一次连招。每个与前一个不同的技能或攻击都会提升她的评价等级，从E到S(一共6级)。每个评级会为莎弥拉提供3.5%移动速度。 莎弥拉在近战距离的攻击和技能会造成额外的&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，基于目标的已损失生命值至多提升100%。 莎弥拉如果在6秒里没有用她的攻击或技能对敌人造成伤害，就会失去她的评价等级。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +908,10 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1188,19 +1188,19 @@
         <v>107</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="W4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1404,16 +1404,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1475,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="W8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Configs/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/SkillConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProgram\SoulFighterSurvivor\Assets\Resources\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E5DD2-CE4A-4D94-A4F6-8F32C87E6E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068236DC-3E4D-4606-A05A-C4D93F9424D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="25845" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,10 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0,5,10,15,20]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[60,60,60,60,60]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,23 +556,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">莎弥拉只能在她当前的评价等级为S时使用这个技能。使用这个技能会消耗掉所有评价等级。 莎弥拉的武器倾泻出大量的子弹，狂野地在2秒里持续对她周围的所有敌人进行10次射击，每次射击造成&lt;color=#FF6A6A&gt;{0:F0}物理伤害&lt;/color&gt;并施加80%效能的生命偷取。这些射击也可以产生暴击。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莎弥拉斩击她的周围0.75秒，使范围内的敌人减速50%，并在持续时间开始和结束时分别对敌人造成2段伤害，每段造成&lt;color=#FF6A6A&gt;{0:F0}物理伤害&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>莎弥拉进行一次射击，对命中的第一个敌人造成{0:F0}物理伤害。如果朝着近战距离内的一名敌人施放这个技能，那么莎弥拉会转而用她的剑进行斩击，造成&lt;color=#FF6A6A&gt;{1:F0}物理伤害&lt;/color&gt;。 这两种打击能够暴击并施加80%效能的生命偷取。 如果在狂飙期间施放此技能，那么莎弥拉将在冲刺完成时打击她沿途的所有敌人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莎弥拉冲刺并越过一名敌人，斩击沿途的敌人以造成&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;并获得{1:P0}攻击速度，持续5秒。 如果一名敌人被莎弥拉击杀，那么这个技能的冷却时间会重置。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>莎弥拉可通过用不同的技能或攻击对敌方英雄造成伤害来构建一次连招。每个与前一个不同的技能或攻击都会提升她的评价等级，从E到S(一共6级)。每个评级会为莎弥拉提供3.5%移动速度。 莎弥拉在近战距离的攻击和技能会造成额外的&lt;color=#7700BB&gt;{0:F0}魔法伤害&lt;/color&gt;，基于目标的已损失生命值至多提升100%。 莎弥拉如果在6秒里没有用她的攻击或技能对敌人造成伤害，就会失去她的评价等级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,5,10,15,20],[0.95,1.025,1.1,1.175,1.25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莎弥拉进行一次射击，对命中的第一个敌人造成&lt;color=#FF6A6A&gt;{0:F0}物理伤害&lt;/color&gt;。如果朝着近战距离内的一名敌人施放这个技能，那么莎弥拉会转而用她的剑进行斩击，对扇形范围内的敌人造成等额物理伤害。 
+该技能能够暴击并施加66.6%效能的生命偷取。 如果在狂飙期间施放此技能，那么莎弥拉将在冲刺完成时打击她沿途的所有敌人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">莎弥拉只能在她当前的评价等级为S时使用这个技能。使用这个技能会消耗掉所有评价等级。 莎弥拉的武器倾泻出大量的子弹，狂野地在2秒里持续对她周围的所有敌人进行10次射击，每次射击造成&lt;color=#FF6A6A&gt;{0:F0}物理伤害&lt;/color&gt;并施加66.6%效能的生命偷取。这些射击也可以产生暴击。 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +909,10 @@
   <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1188,19 +1189,19 @@
         <v>107</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1336,13 +1337,13 @@
         <v>121</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1407,13 +1408,13 @@
         <v>122</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -1475,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="U8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="W8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
